--- a/Reports/Results.xlsx
+++ b/Reports/Results.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\_Uni\ELEC5305 Acoustics\Scripts\Something Awesome\ELEC5305-SomethingAwesome\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4972D3B-B995-4CE2-A0EF-6FF070E03815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B384245B-1754-4B47-88DC-2440AE851F00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C17D27F3-E24F-4B67-B25F-FFC199F253E1}"/>
+    <workbookView xWindow="36270" yWindow="2280" windowWidth="15330" windowHeight="10890" activeTab="1" xr2:uid="{C17D27F3-E24F-4B67-B25F-FFC199F253E1}"/>
   </bookViews>
   <sheets>
     <sheet name="ClassicalML" sheetId="1" r:id="rId1"/>
+    <sheet name="ClassicalML_Balanced" sheetId="2" r:id="rId2"/>
+    <sheet name="CNN_Batch32" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="76">
   <si>
     <t>Validation</t>
   </si>
@@ -67,16 +69,217 @@
   </si>
   <si>
     <t>validation uses best_score_ of GridSearchCV object</t>
+  </si>
+  <si>
+    <t>Best model for the validation set is chosen and then the accuracy on the test set is calculated based on that.</t>
+  </si>
+  <si>
+    <t>val_loss</t>
+  </si>
+  <si>
+    <t>val_acc</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>Model: "model_1"</t>
+  </si>
+  <si>
+    <t>_________________________________________________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Layer (type)                Output Shape              Param #   </t>
+  </si>
+  <si>
+    <t>=================================================================</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> input_2 (InputLayer)        [(None, 128, 130, 1)]     0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conv2d_5 (Conv2D)           (None, 128, 130, 16)      160       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> activation_5 (Activation)   (None, 128, 130, 16)      0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> max_pooling2d_5 (MaxPooling  (None, 64, 65, 16)       0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2D)                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dropout_7 (Dropout)         (None, 64, 65, 16)        0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conv2d_6 (Conv2D)           (None, 64, 65, 32)        4640      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> activation_6 (Activation)   (None, 64, 65, 32)        0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> max_pooling2d_6 (MaxPooling  (None, 32, 32, 32)       0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dropout_8 (Dropout)         (None, 32, 32, 32)        0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conv2d_7 (Conv2D)           (None, 32, 32, 64)        18496     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> activation_7 (Activation)   (None, 32, 32, 64)        0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> max_pooling2d_7 (MaxPooling  (None, 16, 16, 64)       0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dropout_9 (Dropout)         (None, 16, 16, 64)        0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conv2d_8 (Conv2D)           (None, 16, 16, 128)       73856     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> activation_8 (Activation)   (None, 16, 16, 128)       0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> max_pooling2d_8 (MaxPooling  (None, 8, 8, 128)        0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dropout_10 (Dropout)        (None, 8, 8, 128)         0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conv2d_9 (Conv2D)           (None, 8, 8, 256)         295168    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> activation_9 (Activation)   (None, 8, 8, 256)         0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> max_pooling2d_9 (MaxPooling  (None, 4, 4, 256)        0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dropout_11 (Dropout)        (None, 4, 4, 256)         0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> flatten_1 (Flatten)         (None, 4096)              0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dropout_12 (Dropout)        (None, 4096)              0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dense_2 (Dense)             (None, 512)               2097664   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dropout_13 (Dropout)        (None, 512)               0         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dense_3 (Dense)             (None, 2)                 1026      </t>
+  </si>
+  <si>
+    <t>Total params: 2,491,010</t>
+  </si>
+  <si>
+    <t>Trainable params: 2,491,010</t>
+  </si>
+  <si>
+    <t>Non-trainable params: 0</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t># parameters</t>
+  </si>
+  <si>
+    <t>InputLayer</t>
+  </si>
+  <si>
+    <t>None, 128, 130, 1</t>
+  </si>
+  <si>
+    <t>Conv2D</t>
+  </si>
+  <si>
+    <t>None, 128, 130, 16</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>MaxPooling</t>
+  </si>
+  <si>
+    <t>None, 64, 65, 16</t>
+  </si>
+  <si>
+    <t>Dropout</t>
+  </si>
+  <si>
+    <t>None, 64, 65, 32</t>
+  </si>
+  <si>
+    <t>None, 32, 32, 32</t>
+  </si>
+  <si>
+    <t>None, 32, 32, 64</t>
+  </si>
+  <si>
+    <t>None, 16, 16, 64</t>
+  </si>
+  <si>
+    <t>None, 16, 16, 128</t>
+  </si>
+  <si>
+    <t>None, 8, 8, 128</t>
+  </si>
+  <si>
+    <t>None, 8, 8, 256</t>
+  </si>
+  <si>
+    <t>None, 4, 4, 256</t>
+  </si>
+  <si>
+    <t>Flatten</t>
+  </si>
+  <si>
+    <t>None, 4096</t>
+  </si>
+  <si>
+    <t>Dense</t>
+  </si>
+  <si>
+    <t>None, 512</t>
+  </si>
+  <si>
+    <t>None, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total params: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,8 +305,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,6 +673,613 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-30C1-4756-B766-80F86F847998}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="56217439"/>
+        <c:axId val="56207039"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="56217439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56207039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56207039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56217439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Classical Machine Learning Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ClassicalML_Balanced!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Validation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ClassicalML_Balanced!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ElasticNet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ClassicalML_Balanced!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.91410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95699999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC2A-4900-96DE-CDB3DB32E256}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ClassicalML_Balanced!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ClassicalML_Balanced!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ElasticNet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ClassicalML_Balanced!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.92659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96330000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC2A-4900-96DE-CDB3DB32E256}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -768,7 +1582,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1296,6 +2653,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E17785-C611-4803-A24B-76CFB699AFAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1609,10 +3009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83235238-380E-4658-BE2E-1558C6773154}">
-  <dimension ref="B1:K13"/>
+  <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,8 +3109,867 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1512214-61E7-4E81-A1F7-EDB1C55E3E5C}">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.92659999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.91739999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.8498</v>
+      </c>
+      <c r="D5">
+        <v>0.88070000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="D6">
+        <v>0.89910000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D7">
+        <v>0.96330000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D01FDD-7C8F-40F1-B0CE-7A37072E6C90}">
+  <dimension ref="B2:M74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>186</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <f>SUM(C5:D5)</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>209</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <f>SUM(C6:D6)</f>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="M15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17">
+        <v>160</v>
+      </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21">
+        <v>4640</v>
+      </c>
+      <c r="M21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25">
+        <v>18496</v>
+      </c>
+      <c r="M25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29">
+        <v>73856</v>
+      </c>
+      <c r="M29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33">
+        <v>295168</v>
+      </c>
+      <c r="M33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39">
+        <v>2097664</v>
+      </c>
+      <c r="M39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" t="s">
+        <v>74</v>
+      </c>
+      <c r="K41">
+        <v>1026</v>
+      </c>
+      <c r="M41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" t="s">
+        <v>75</v>
+      </c>
+      <c r="K42" s="2">
+        <v>2491010</v>
+      </c>
+      <c r="M42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="M43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="M44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="M46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Reports/Results.xlsx
+++ b/Reports/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\_Uni\ELEC5305 Acoustics\Scripts\Something Awesome\ELEC5305-SomethingAwesome\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B384245B-1754-4B47-88DC-2440AE851F00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA9F934-193C-442B-88A1-D47B9E325CA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36270" yWindow="2280" windowWidth="15330" windowHeight="10890" activeTab="1" xr2:uid="{C17D27F3-E24F-4B67-B25F-FFC199F253E1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C17D27F3-E24F-4B67-B25F-FFC199F253E1}"/>
   </bookViews>
   <sheets>
     <sheet name="ClassicalML" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
   <si>
     <t>Validation</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t xml:space="preserve">Total params: </t>
+  </si>
+  <si>
+    <t>Dataset size:</t>
+  </si>
+  <si>
+    <t>Full_test_set</t>
+  </si>
+  <si>
+    <t>Small_test_set</t>
   </si>
 </sst>
 </file>
@@ -307,10 +316,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3011,7 +3020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83235238-380E-4658-BE2E-1558C6773154}">
   <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -3124,7 +3133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1512214-61E7-4E81-A1F7-EDB1C55E3E5C}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -3204,10 +3213,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D01FDD-7C8F-40F1-B0CE-7A37072E6C90}">
-  <dimension ref="B2:M74"/>
+  <dimension ref="B2:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3217,7 +3226,7 @@
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -3225,7 +3234,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -3233,7 +3242,18 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -3248,7 +3268,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -3263,72 +3283,54 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="M11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="M12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="M13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="M15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -3341,11 +3343,8 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -3358,11 +3357,8 @@
       <c r="K17">
         <v>160</v>
       </c>
-      <c r="M17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -3375,11 +3371,8 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -3392,11 +3385,8 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -3409,11 +3399,8 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="M20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -3426,11 +3413,8 @@
       <c r="K21">
         <v>4640</v>
       </c>
-      <c r="M21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -3443,11 +3427,8 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="M22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -3460,11 +3441,8 @@
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="M23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -3477,11 +3455,8 @@
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>21</v>
       </c>
@@ -3494,11 +3469,8 @@
       <c r="K25">
         <v>18496</v>
       </c>
-      <c r="M25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>28</v>
       </c>
@@ -3511,11 +3483,8 @@
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="M26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>21</v>
       </c>
@@ -3528,11 +3497,8 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="M27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -3545,11 +3511,8 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="M28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -3562,11 +3525,8 @@
       <c r="K29">
         <v>73856</v>
       </c>
-      <c r="M29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>21</v>
       </c>
@@ -3579,11 +3539,8 @@
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -3596,11 +3553,8 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="M31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>21</v>
       </c>
@@ -3613,11 +3567,8 @@
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="M32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -3630,11 +3581,8 @@
       <c r="K33">
         <v>295168</v>
       </c>
-      <c r="M33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>21</v>
       </c>
@@ -3647,11 +3595,8 @@
       <c r="K34">
         <v>0</v>
       </c>
-      <c r="M34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -3664,11 +3609,8 @@
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="M35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>21</v>
       </c>
@@ -3681,11 +3623,8 @@
       <c r="K36">
         <v>0</v>
       </c>
-      <c r="M36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>33</v>
       </c>
@@ -3698,11 +3637,8 @@
       <c r="K37">
         <v>0</v>
       </c>
-      <c r="M37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>25</v>
       </c>
@@ -3715,11 +3651,8 @@
       <c r="K38">
         <v>0</v>
       </c>
-      <c r="M38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>21</v>
       </c>
@@ -3732,11 +3665,8 @@
       <c r="K39">
         <v>2097664</v>
       </c>
-      <c r="M39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>34</v>
       </c>
@@ -3749,11 +3679,8 @@
       <c r="K40">
         <v>0</v>
       </c>
-      <c r="M40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>21</v>
       </c>
@@ -3766,71 +3693,47 @@
       <c r="K41">
         <v>1026</v>
       </c>
-      <c r="M41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>35</v>
       </c>
       <c r="I42" t="s">
         <v>75</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1">
         <v>2491010</v>
       </c>
-      <c r="M42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>21</v>
       </c>
-      <c r="K43" s="2"/>
-      <c r="M43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>36</v>
       </c>
-      <c r="M44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>21</v>
       </c>
-      <c r="M45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>37</v>
       </c>
-      <c r="M46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>25</v>
       </c>
-      <c r="M47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>21</v>
-      </c>
-      <c r="M48" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
